--- a/fuentes/contenidos/grado08/guion01/SolicitudGrafica_CS_08_01_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion01/SolicitudGrafica_CS_08_01_CO.xlsx
@@ -529,9 +529,6 @@
     <t>Vertical</t>
   </si>
   <si>
-    <t>Ilustración</t>
-  </si>
-  <si>
     <t>CS_08_01_CO</t>
   </si>
   <si>
@@ -581,6 +578,9 @@
     <t xml:space="preserve"> Aula planeta
 4º ESO/ Ciencias sociales, geografía e historia/El fin del Antiguo Régimen/La Revolución francesa
 </t>
+  </si>
+  <si>
+    <t>Fotografía</t>
   </si>
 </sst>
 </file>
@@ -5384,9 +5384,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5459,7 +5459,7 @@
         <v>55</v>
       </c>
       <c r="C4" s="85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" s="86"/>
       <c r="E4" s="5"/>
@@ -5480,7 +5480,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="88"/>
       <c r="E5" s="5"/>
@@ -5515,7 +5515,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" s="35" t="s">
         <v>40</v>
@@ -5595,7 +5595,7 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>148</v>
@@ -5625,14 +5625,14 @@
         <v>IMG02</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="27" t="str">
         <f>IF(OR(B11&lt;&gt;[1]Ayuda!A6,J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>148</v>
@@ -5662,14 +5662,14 @@
         <v>IMG03</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="27" t="str">
         <f>IF(OR(B12&lt;&gt;[2]Ayuda!A7,J12&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>148</v>
@@ -5699,14 +5699,14 @@
         <v>IMG04</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="27" t="str">
         <f>IF(OR(B13&lt;&gt;[3]Ayuda!A8,J13&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>148</v>
@@ -5736,14 +5736,14 @@
         <v>IMG05</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="27" t="str">
         <f>IF(OR(B14&lt;&gt;[4]Ayuda!A9,J14&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>148</v>
@@ -5773,14 +5773,14 @@
         <v>IMG06</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="27" t="str">
         <f>IF(OR(B15&lt;&gt;[5]Ayuda!A10,J15&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>148</v>
@@ -5802,7 +5802,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K15" s="19"/>
     </row>
@@ -5812,14 +5812,14 @@
         <v>IMG07</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="27" t="str">
         <f>IF(OR(B16&lt;&gt;[6]Ayuda!A11,J16&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>148</v>
@@ -5849,17 +5849,17 @@
         <v>IMG08</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="27" t="str">
         <f>IF(OR(B17&lt;&gt;[7]Ayuda!A12,J17&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F17" s="14" t="str">
         <f t="shared" si="1"/>
@@ -5886,14 +5886,14 @@
         <v>IMG09</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" s="27" t="str">
         <f>IF(OR(B18&lt;&gt;[8]Ayuda!A13,J18&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>148</v>
@@ -5923,17 +5923,17 @@
         <v>IMG10</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" s="27" t="str">
         <f>IF(OR(B19&lt;&gt;[9]Ayuda!A14,J19&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F19" s="14" t="str">
         <f t="shared" si="1"/>
@@ -5960,17 +5960,17 @@
         <v>IMG11</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" s="27" t="str">
         <f>IF(OR(B20&lt;&gt;[10]Ayuda!A15,J20&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F20" s="14" t="str">
         <f t="shared" si="1"/>
